--- a/nhcDat2022/infection_diseases2022.xlsx
+++ b/nhcDat2022/infection_diseases2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dxlin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{568209CB-2F40-49A3-87A3-6863EAFBAA35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53437DAA-5159-4C26-A473-64D327A0BC31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1758" yWindow="12" windowWidth="20598" windowHeight="12318" xr2:uid="{D42F1926-9AB8-4CF4-A4EA-F5F74E21E899}"/>
+    <workbookView xWindow="10458" yWindow="96" windowWidth="20598" windowHeight="12318" activeTab="1" xr2:uid="{D42F1926-9AB8-4CF4-A4EA-F5F74E21E899}"/>
   </bookViews>
   <sheets>
     <sheet name="全国" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="45">
   <si>
     <t>月</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -209,6 +209,10 @@
   </si>
   <si>
     <t>https://new.qq.com/rain/a/20211119A08QCB00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://wsjkw.sc.gov.cn/scwsjkw/rdts/2022/11/10/4bb1fdc58a754f1eb380bfe833adecd2.shtml</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -843,7 +847,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDF0F91E-F6D4-4254-93EF-6F5CA999ABE4}">
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
@@ -1834,8 +1838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91BDC722-D44C-4DA9-91FF-B2AAA87F7611}">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -2279,17 +2283,39 @@
       <c r="A12" s="1">
         <v>44835</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="15"/>
+      <c r="B12" s="12">
+        <v>0</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0</v>
+      </c>
+      <c r="D12" s="10">
+        <v>15764</v>
+      </c>
+      <c r="E12" s="3">
+        <v>339</v>
+      </c>
+      <c r="F12" s="10">
+        <v>9624</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="14">
+        <v>610</v>
+      </c>
+      <c r="I12" s="14">
+        <v>0</v>
+      </c>
+      <c r="J12" s="10">
+        <v>9624</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="16" t="s">
+        <v>44</v>
+      </c>
       <c r="M12" t="s">
         <v>8</v>
       </c>
@@ -2354,6 +2380,7 @@
     <hyperlink ref="L5" r:id="rId7" xr:uid="{818BA7C9-6D55-401E-9B47-076E460CC290}"/>
     <hyperlink ref="L4" r:id="rId8" xr:uid="{40A0E4E9-9BC0-4C29-A1FC-87DE50A575E3}"/>
     <hyperlink ref="L3" r:id="rId9" xr:uid="{D3D5A7C6-B175-4E5C-B73D-3941F3F4D080}"/>
+    <hyperlink ref="L12" r:id="rId10" xr:uid="{4CAAA5EA-C4D4-4092-B40E-E953406ECD4B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
